--- a/data/trans_camb/P38C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Habitat-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P38C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,62</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,81; 13,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 12,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 10,94</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,42%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,87; 17,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,85; 16,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 13,46</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,89; 7,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 7,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 6,42</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,43; 9,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 8,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 7,7</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,68</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,07; -3,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,46; -3,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,33; -4,51</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,88%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,89; -3,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,23; -3,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,63; -5,25</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,1; 4,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,23; 6,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 3,84</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,19%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; 5,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; 7,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 4,57</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,35; 3,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,8; 3,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,76; 2,36</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,12%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,59%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,5; 3,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,65; 3,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 2,9</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,47; -0,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 0,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; -0,06</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,31%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,05%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,92; -0,35</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 0,99</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; -0,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Habitat-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>4,0</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 13,93</t>
+          <t>-2,04; 7,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 12,99</t>
+          <t>1,7; 7,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 10,94</t>
+          <t>0,78; 6,73</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 17,69</t>
+          <t>-2,36; 9,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 16,03</t>
+          <t>1,97; 9,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 13,46</t>
+          <t>0,93; 8,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>-20,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>-14,31</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 7,76</t>
+          <t>-51,17; -2,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 7,38</t>
+          <t>-8,35; -2,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 6,42</t>
+          <t>-40,31; -4,25</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>-24,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>-16,55%</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 9,68</t>
+          <t>-61,3; -3,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 8,57</t>
+          <t>-9,13; -2,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,7</t>
+          <t>-46,2; -4,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,93</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,68</t>
+          <t>1,17</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,07; -3,22</t>
+          <t>-6,18; 4,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -3,31</t>
+          <t>-2,64; 8,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -4,51</t>
+          <t>-2,26; 7,21</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,84%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,07%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,88%</t>
+          <t>1,4%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,89; -3,93</t>
+          <t>-7,64; 5,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -3,68</t>
+          <t>-3,02; 10,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,63; -5,25</t>
+          <t>-2,67; 8,75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-2,01</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 4,17</t>
+          <t>-4,93; 3,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 6,14</t>
+          <t>-21,91; 3,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 3,84</t>
+          <t>-10,74; 2,03</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>-2,44%</t>
         </is>
       </c>
     </row>
@@ -913,24 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 5,28</t>
+          <t>-5,99; 4,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 7,14</t>
+          <t>-26,06; 3,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 4,57</t>
+          <t>-13,02; 2,42</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-3,89</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 3,04</t>
+          <t>-26,97; -0,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,06</t>
+          <t>-7,39; 1,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 2,36</t>
+          <t>-12,48; -0,12</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>-8,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,12%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,59%</t>
+          <t>-4,6%</t>
         </is>
       </c>
     </row>
@@ -1009,131 +1009,34 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 3,83</t>
+          <t>-33,1; -0,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 3,61</t>
+          <t>-8,44; 1,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 2,9</t>
+          <t>-14,71; -0,16</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-2,69</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-7,47; -0,33</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; 0,86</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-3,87; -0,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-3,31%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-1,22%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-2,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-8,92; -0,35</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 0,99</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; -0,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P38C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Habitat-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 7,94</t>
+          <t>-2,5; 7,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 7,85</t>
+          <t>1,72; 7,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 6,73</t>
+          <t>0,8; 6,8</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 9,81</t>
+          <t>-2,9; 9,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 9,22</t>
+          <t>1,84; 8,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,01</t>
+          <t>1,04; 8,16</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-51,17; -2,93</t>
+          <t>-47,89; -3,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,35; -2,53</t>
+          <t>-8,7; -2,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-40,31; -4,25</t>
+          <t>-37,18; -4,26</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,3; -3,64</t>
+          <t>-58,8; -3,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,13; -2,83</t>
+          <t>-9,45; -3,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,2; -4,88</t>
+          <t>-42,86; -4,96</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 4,25</t>
+          <t>-6,18; 3,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,77</t>
+          <t>-2,42; 8,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 7,21</t>
+          <t>-2,34; 6,8</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 5,42</t>
+          <t>-7,58; 5,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 10,28</t>
+          <t>-2,77; 9,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 8,75</t>
+          <t>-2,76; 8,24</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 3,61</t>
+          <t>-4,75; 3,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 3,17</t>
+          <t>-18,77; 3,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 2,03</t>
+          <t>-13,02; 1,92</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 4,61</t>
+          <t>-5,82; 4,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 3,7</t>
+          <t>-21,87; 3,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 2,42</t>
+          <t>-15,6; 2,33</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -0,38</t>
+          <t>-24,42; -0,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 1,31</t>
+          <t>-6,47; 1,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,48; -0,12</t>
+          <t>-13,93; 0,07</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-33,1; -0,46</t>
+          <t>-29,91; -0,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,51</t>
+          <t>-7,37; 1,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,71; -0,16</t>
+          <t>-16,48; 0,09</t>
         </is>
       </c>
     </row>
